--- a/Planilha de Risco - Orchis System.xlsx
+++ b/Planilha de Risco - Orchis System.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C064872E-28E8-420B-8FF3-DC6A47FB4B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio\Desktop\OrchisSystems\Documentacao\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BFEF7D-C495-4590-B4EC-2B4E860E29A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -73,27 +78,15 @@
     <t>Falta de conhecimento no tema</t>
   </si>
   <si>
-    <t>PREPARAÇÃO PARA LIDAR COM O CONSTANTE APRENDIZADO QUE O PROJETO DEMANDA, COMUNICAÇÃO ENTRE A EQUIPE PARA SEGMENTAR TAREFAS E TRABALHO EM EQUIPE</t>
-  </si>
-  <si>
-    <t>Ferramente Nova</t>
-  </si>
-  <si>
     <t>TRABALHO EM EQUIPE PARA A ADAPTAÇÃO À NOVA FERRAMENTA, CONSULTA COM COLEGAS SOBRE AS FERRAMENTAS E ESTUDO INTENSO</t>
   </si>
   <si>
     <t>Mal planejamento</t>
   </si>
   <si>
-    <t>GESTÃO CONSTANTE E ATUALIZAÇÃO CONSTANTE DO MODELO DE GESTÃO, PARA QUE AS FALHAS DE PLANEJAMENTO SEJAM NOTADAS O MAIS CEDO POSSÍVEL</t>
-  </si>
-  <si>
     <t>Dificuldade de comunicação entre a equipe</t>
   </si>
   <si>
-    <t>TRABALHAR FERRAMENTAS DE COMUNICAÇÃO EFETIVA ENTRE OS MEMBROS</t>
-  </si>
-  <si>
     <t>Saída de integrantes</t>
   </si>
   <si>
@@ -119,13 +112,25 @@
   </si>
   <si>
     <t>BAIXO(1)</t>
+  </si>
+  <si>
+    <t>Ferramenta Nova</t>
+  </si>
+  <si>
+    <t>GERENCIAMENTO E ATUALIZAÇÃO CONSTANTE DO MODELO DE GESTÃO, PARA QUE AS FALHAS DE PLANEJAMENTO SEJAM NOTADAS O MAIS CEDO POSSÍVEL</t>
+  </si>
+  <si>
+    <t>TRABALHAR COM FERRAMENTAS DE COMUNICAÇÃO EFETIVA ENTRE OS MEMBROS</t>
+  </si>
+  <si>
+    <t>PREPARAÇÃO PARA LIDAR COM O CONSTANTE APRENDIZADO QUE O PROJETO DEMANDA, COMUNICAÇÃO ENTRE A EQUIPE PARA SEGMENTAR TAREFAS E TRABALHO EM EQUIPE, ALÉM DE CONVERSAR COM OS PROFESSORES CASO NECESSÁRIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -199,7 +204,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -208,11 +213,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF672485"/>
+      </left>
       <right style="medium">
         <color rgb="FF672485"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF672485"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF672485"/>
       </bottom>
@@ -222,35 +231,7 @@
       <left style="medium">
         <color rgb="FF672485"/>
       </left>
-      <right style="medium">
-        <color rgb="FF672485"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF672485"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF672485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF672485"/>
-      </left>
       <right/>
-      <top style="medium">
-        <color rgb="FF672485"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF672485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF672485"/>
-      </right>
       <top style="medium">
         <color rgb="FF672485"/>
       </top>
@@ -411,19 +392,6 @@
       <top style="thick">
         <color rgb="FF672485"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF672485"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF672485"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF672485"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF672485"/>
       </bottom>
@@ -481,126 +449,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1768,259 +1729,251 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="20.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.21875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="92.25" customHeight="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="90" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="121.5" customHeight="1">
-      <c r="A2" s="14">
+    <row r="2" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>2</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="32">
         <v>2</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="22">
         <v>4</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="215.25" customHeight="1">
-      <c r="A3" s="14">
+    <row r="3" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <v>3</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="32">
         <v>1</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="39" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="30">
+        <v>2</v>
+      </c>
+      <c r="D4" s="32">
+        <v>1</v>
+      </c>
+      <c r="E4" s="24">
+        <v>2</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="186.75" customHeight="1">
-      <c r="A4" s="14">
+    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="33">
+      <c r="E5" s="25">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>3</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32">
+        <v>3</v>
+      </c>
+      <c r="E7" s="26">
+        <v>3</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="69.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="36">
+        <v>9</v>
+      </c>
+      <c r="D10" s="34">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10">
+        <v>6</v>
+      </c>
+      <c r="D11" s="37">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38">
         <v>2</v>
       </c>
-      <c r="D4" s="38">
+    </row>
+    <row r="12" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="27">
-        <v>2</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="47" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" ht="185.25" customHeight="1">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="33">
-        <v>2</v>
-      </c>
-      <c r="D5" s="38">
-        <v>3</v>
-      </c>
-      <c r="E5" s="28">
-        <v>6</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="143.25" customHeight="1">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="33">
-        <v>1</v>
-      </c>
-      <c r="D6" s="38">
-        <v>3</v>
-      </c>
-      <c r="E6" s="25">
-        <v>3</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="172.5" customHeight="1">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="33">
-        <v>1</v>
-      </c>
-      <c r="D7" s="38">
-        <v>3</v>
-      </c>
-      <c r="E7" s="29">
-        <v>3</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
-    </row>
-    <row r="9" spans="1:7" ht="15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="23"/>
-    </row>
-    <row r="10" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="43">
-        <v>9</v>
-      </c>
-      <c r="D10" s="40">
-        <v>6</v>
-      </c>
-      <c r="E10" s="21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6</v>
-      </c>
-      <c r="D11" s="44">
-        <v>4</v>
-      </c>
-      <c r="E11" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="21">
-        <v>3</v>
-      </c>
-      <c r="D12" s="22">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1">
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:E12">
+  <conditionalFormatting sqref="C1:E7 C9:E12">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Alto"</formula>
     </cfRule>
